--- a/tests/fixtures/orderforms/1508.34.mip.xlsx
+++ b/tests/fixtures/orderforms/1508.34.mip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jsdiazboada/Documents/Clinical_Genomics/repos/cg/tests/fixtures/orderforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C769A11-C534-264B-A7D3-21934A149111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05803B45-021B-5445-98AB-D06F314F1E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19400" yWindow="-21100" windowWidth="19000" windowHeight="21100" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19400" yWindow="-21120" windowWidth="19000" windowHeight="21120" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="1" r:id="rId1"/>
@@ -5847,8 +5847,8 @@
   </sheetPr>
   <dimension ref="A1:AMM395"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AA1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="AB4" sqref="AB4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Q21" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="U37" sqref="U37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -35083,7 +35083,7 @@
         <v>81</v>
       </c>
       <c r="U39" s="159" t="s">
-        <v>165</v>
+        <v>451</v>
       </c>
       <c r="V39" s="160" t="s">
         <v>70</v>
